--- a/biology/Médecine/1861_en_santé_et_médecine/1861_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1861_en_santé_et_médecine/1861_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1861_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1861_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1861 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1861_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1861_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8 janvier : dans un mémoire intitulé Sur une forme de surdité grave dépendant d'une lésion de l'oreille interne présenté à l'Académie de médecine Prosper Menière attribue à l'oreille interne la maladie associant des vertiges paroxystiques et une surdité[1]
-18 avril : Paul Broca identifie une aire cérébrale dans l'hémisphère gauche du cerveau indispensable au langage parlé, appelée « aire de Broca », en autopsiant un patient aphasique surnommé « Tan Tan »[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8 janvier : dans un mémoire intitulé Sur une forme de surdité grave dépendant d'une lésion de l'oreille interne présenté à l'Académie de médecine Prosper Menière attribue à l'oreille interne la maladie associant des vertiges paroxystiques et une surdité
+18 avril : Paul Broca identifie une aire cérébrale dans l'hémisphère gauche du cerveau indispensable au langage parlé, appelée « aire de Broca », en autopsiant un patient aphasique surnommé « Tan Tan ».</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1861_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1861_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1861_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1861_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,9 +584,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ignaz Philipp Semmelweis, Die Aetiologie, der Begriff und die Prophylaxie des Kindbettfiebers, Pest, Vienne et Leipzig — L'étiologie, la signification et la prophylaxie de la fièvre puerpérale — Comparant deux maternités d'un même hôpital, Semmelweis démontre la nécessité du lavage des mains[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ignaz Philipp Semmelweis, Die Aetiologie, der Begriff und die Prophylaxie des Kindbettfiebers, Pest, Vienne et Leipzig — L'étiologie, la signification et la prophylaxie de la fièvre puerpérale — Comparant deux maternités d'un même hôpital, Semmelweis démontre la nécessité du lavage des mains.
 Edmond-Léonce Hiffelsheim, Des applications médicales de la pile de Volta, Paris, J.-B. Baillière Lire en ligne ; recherches sur l'électrothérapie.</t>
         </is>
       </c>
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1861_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1861_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,9 +617,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>29 juin : William James Mayo (mort en 1939 d'un cancer de l'estomac[4]), chirurgien américain.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>29 juin : William James Mayo (mort en 1939 d'un cancer de l'estomac), chirurgien américain.
 2 juillet : Hastings Gilford (mort en 1941), chirurgien anglais connu pour sa description du syndrome de Hutchinson–Gilford ou progéria.</t>
         </is>
       </c>
@@ -612,7 +632,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1861_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1861_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,7 +650,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>3 janvier : Arnold Adolph Berthold (né en 1803), médecin, physiologiste et anatomiste allemand.
 22 janvier : Friedrich Tiedemann (né en 1781), anatomiste et physiologiste allemand.
